--- a/experiment/model.xlsx
+++ b/experiment/model.xlsx
@@ -1,26 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10319"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/NicoleHuang/OneDrive - Australian National University/COMP8800/diffSimilarTech/evaluation/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Freddie/Documents/Monash/project/diffSimilarTech/experiment/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{3A4D203F-5C77-DE41-B785-2FB750B02EAE}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{7355927C-EEC7-B94B-BC3F-EFFF33BD15E7}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="shee1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="179017"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="19">
   <si>
     <t>ARI</t>
   </si>
@@ -83,7 +83,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -96,6 +96,13 @@
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -133,11 +140,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -440,10 +448,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -762,23 +770,23 @@
         <v>0.65517117460740903</v>
       </c>
       <c r="C14">
-        <f>AVERAGE(C2:C13)</f>
+        <f t="shared" ref="B14:G14" si="0">AVERAGE(C2:C13)</f>
         <v>0.71611710476116397</v>
       </c>
       <c r="D14">
-        <f>AVERAGE(D2:D13)</f>
+        <f t="shared" si="0"/>
         <v>0.78543067204486938</v>
       </c>
       <c r="E14">
-        <f>AVERAGE(E2:E13)</f>
+        <f t="shared" si="0"/>
         <v>0.75261125923127714</v>
       </c>
       <c r="F14">
-        <f>AVERAGE(F2:F13)</f>
+        <f t="shared" si="0"/>
         <v>0.73162172930120484</v>
       </c>
       <c r="G14">
-        <f>AVERAGE(G2:G13)</f>
+        <f t="shared" si="0"/>
         <v>0.72893405274493261</v>
       </c>
     </row>
@@ -802,7 +810,310 @@
         <v>0.73</v>
       </c>
     </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17">
+        <v>-3.11539249846279E-2</v>
+      </c>
+      <c r="C17">
+        <v>0.21412347353095401</v>
+      </c>
+      <c r="D17">
+        <v>0.30467052154000901</v>
+      </c>
+      <c r="E17">
+        <v>0.28580248555179</v>
+      </c>
+      <c r="F17">
+        <v>0.2473803164161</v>
+      </c>
+      <c r="G17">
+        <v>0.24482433783759899</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18">
+        <v>0.31401320616287598</v>
+      </c>
+      <c r="C18">
+        <v>0.56239412271857003</v>
+      </c>
+      <c r="D18">
+        <v>0.54554472558998102</v>
+      </c>
+      <c r="E18">
+        <v>0.48300958470064498</v>
+      </c>
+      <c r="F18">
+        <v>0.52119262432653501</v>
+      </c>
+      <c r="G18">
+        <v>0.51968775263478095</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B19">
+        <v>-3.9550380353181799E-2</v>
+      </c>
+      <c r="C19">
+        <v>0.149012467971461</v>
+      </c>
+      <c r="D19">
+        <v>0.214924548201158</v>
+      </c>
+      <c r="E19">
+        <v>0.174221131573877</v>
+      </c>
+      <c r="F19">
+        <v>0.161124550545856</v>
+      </c>
+      <c r="G19">
+        <v>0.160633800601924</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B20">
+        <v>-3.26440316728039E-3</v>
+      </c>
+      <c r="C20">
+        <v>1.20225387542822E-2</v>
+      </c>
+      <c r="D20">
+        <v>0.44971987966260002</v>
+      </c>
+      <c r="E20">
+        <v>1.98669415691103E-2</v>
+      </c>
+      <c r="F20">
+        <v>1.5454807502640999E-2</v>
+      </c>
+      <c r="G20">
+        <v>1.4979928962246499E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B21">
+        <v>0.21139529071396601</v>
+      </c>
+      <c r="C21">
+        <v>0.40150067962677999</v>
+      </c>
+      <c r="D21">
+        <v>0.40689422938557901</v>
+      </c>
+      <c r="E21">
+        <v>0.39538271461722302</v>
+      </c>
+      <c r="F21">
+        <v>0.39842995448572399</v>
+      </c>
+      <c r="G21">
+        <v>0.39841821219551898</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B22">
+        <v>5.4729847875502599E-2</v>
+      </c>
+      <c r="C22">
+        <v>0.10320211228086799</v>
+      </c>
+      <c r="D22">
+        <v>0.376285215183782</v>
+      </c>
+      <c r="E22">
+        <v>0.118394122374552</v>
+      </c>
+      <c r="F22">
+        <v>0.110537430360459</v>
+      </c>
+      <c r="G22">
+        <v>0.110277356740227</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B23">
+        <v>4.6306681621534902E-2</v>
+      </c>
+      <c r="C23">
+        <v>0.26024767736087701</v>
+      </c>
+      <c r="D23">
+        <v>0.37489776025663002</v>
+      </c>
+      <c r="E23">
+        <v>0.27533117147332598</v>
+      </c>
+      <c r="F23">
+        <v>0.26768320433113202</v>
+      </c>
+      <c r="G23">
+        <v>0.26757702637791903</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B24">
+        <v>-1.42511603582401E-2</v>
+      </c>
+      <c r="C24">
+        <v>7.0431087997511299E-2</v>
+      </c>
+      <c r="D24">
+        <v>0.39690806017320002</v>
+      </c>
+      <c r="E24">
+        <v>8.2094739347411502E-2</v>
+      </c>
+      <c r="F24">
+        <v>7.6039606857941394E-2</v>
+      </c>
+      <c r="G24">
+        <v>7.5816953912137094E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B25">
+        <v>-5.5634413314153098E-3</v>
+      </c>
+      <c r="C25">
+        <v>0.163199237763067</v>
+      </c>
+      <c r="D25">
+        <v>0.407924350323285</v>
+      </c>
+      <c r="E25">
+        <v>0.17072215585686501</v>
+      </c>
+      <c r="F25">
+        <v>0.16691832045976199</v>
+      </c>
+      <c r="G25">
+        <v>0.166875954865114</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B26">
+        <v>1.41807033534167E-2</v>
+      </c>
+      <c r="C26">
+        <v>0.250695630281768</v>
+      </c>
+      <c r="D26">
+        <v>0.18135023756896601</v>
+      </c>
+      <c r="E26">
+        <v>0.31422234533417098</v>
+      </c>
+      <c r="F26">
+        <v>0.280667363461029</v>
+      </c>
+      <c r="G26">
+        <v>0.278887103304782</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B27">
+        <v>-0.118128907092045</v>
+      </c>
+      <c r="C27">
+        <v>0.11584436992871799</v>
+      </c>
+      <c r="D27">
+        <v>0.28823067684915599</v>
+      </c>
+      <c r="E27">
+        <v>0.16107117695297099</v>
+      </c>
+      <c r="F27">
+        <v>0.13659864204227601</v>
+      </c>
+      <c r="G27">
+        <v>0.13476447399153099</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B28">
+        <v>-3.8605589167386899E-2</v>
+      </c>
+      <c r="C28">
+        <v>0.15114347235065201</v>
+      </c>
+      <c r="D28">
+        <v>0.34649572657905803</v>
+      </c>
+      <c r="E28">
+        <v>0.196390399255431</v>
+      </c>
+      <c r="F28">
+        <v>0.17228791855436801</v>
+      </c>
+      <c r="G28">
+        <v>0.170821489960791</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B29">
+        <f>AVERAGE(B17:B28)</f>
+        <v>3.2508993606093238E-2</v>
+      </c>
+      <c r="C29">
+        <f>AVERAGE(C17:C28)</f>
+        <v>0.2044847392137924</v>
+      </c>
+      <c r="D29">
+        <f>AVERAGE(D17:D28)</f>
+        <v>0.35782049427611695</v>
+      </c>
+      <c r="E29">
+        <f>AVERAGE(E17:E28)</f>
+        <v>0.2230424140506144</v>
+      </c>
+      <c r="F29">
+        <f>AVERAGE(F17:F28)</f>
+        <v>0.21285956161198527</v>
+      </c>
+      <c r="G29">
+        <f>AVERAGE(G17:G28)</f>
+        <v>0.21196369928204759</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>